--- a/src/test/resources/VtigerCreateOrg.xlsx
+++ b/src/test/resources/VtigerCreateOrg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="CreateContact" sheetId="1" r:id="rId1"/>
@@ -492,7 +492,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -932,14 +931,14 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="1" max="1" width="26.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -1016,11 +1015,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="41.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="56.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="68.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="35.21875" collapsed="true"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="56.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="68.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1717,17 +1716,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="29.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="1" max="1" width="24.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -1835,13 +1834,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="29.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1987,7 +1986,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -2157,12 +2156,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -2308,11 +2307,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="4.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="30.88671875" collapsed="true"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -2458,12 +2457,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="31.21875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.21875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -2603,18 +2602,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="31.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -2788,11 +2787,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">

--- a/src/test/resources/VtigerCreateOrg.xlsx
+++ b/src/test/resources/VtigerCreateOrg.xlsx
@@ -492,6 +492,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -936,9 +937,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -1015,11 +1016,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="56.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="68.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="41.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="56.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="68.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="35.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1722,11 +1723,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -1834,13 +1835,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="29.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1986,7 +1987,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -2156,12 +2157,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="5.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -2307,11 +2308,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="4.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -2457,12 +2458,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="5.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="31.21875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -2608,12 +2609,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="31.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -2787,11 +2788,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="28.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
